--- a/excel/verbosIrregulares.xlsx
+++ b/excel/verbosIrregulares.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapho\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapho\Documents\GIT\VerbosIrregulares\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{92D879AA-6185-4101-91A8-86DD9EA5F3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B805E-F089-4D62-87B7-01C2461C68C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIMPIO" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="214">
   <si>
     <t>INFINITIVE</t>
   </si>
@@ -418,9 +418,6 @@
   </si>
   <si>
     <t>ekarri</t>
-  </si>
-  <si>
-    <t>biuilt</t>
   </si>
   <si>
     <t>built</t>
@@ -690,7 +687,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -775,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -785,8 +782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1026,26 +1022,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D93" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:D93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:D93" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:D93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="INFINITIVE" dataDxfId="8"/>
-    <tableColumn id="2" name="SIMPLE PAST" dataDxfId="7"/>
-    <tableColumn id="3" name="PAST PARTICIPLE" dataDxfId="6"/>
-    <tableColumn id="4" name="MEANING" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="INFINITIVE" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SIMPLE PAST" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PAST PARTICIPLE" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MEANING" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="A1:D48" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla13" displayName="Tabla13" ref="A1:D48" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D48" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="INFINITIVE" dataDxfId="3"/>
-    <tableColumn id="2" name="SIMPLE PAST" dataDxfId="2"/>
-    <tableColumn id="3" name="PAST PARTICIPLE" dataDxfId="1"/>
-    <tableColumn id="4" name="MEANING" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="INFINITIVE" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SIMPLE PAST" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="PAST PARTICIPLE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="MEANING" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1367,7 +1363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1879,11 +1875,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1926,7 +1922,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>98</v>
@@ -2027,10 +2023,10 @@
         <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2038,13 +2034,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2052,13 +2048,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2066,13 +2062,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2080,13 +2076,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2094,13 +2090,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2108,13 +2104,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,7 +2124,7 @@
         <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2142,7 +2138,7 @@
         <v>102</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2150,13 +2146,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2164,13 +2160,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2184,7 +2180,7 @@
         <v>118</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2192,13 +2188,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2206,13 +2202,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2220,13 +2216,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2234,13 +2230,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,13 +2244,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2262,13 +2258,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2276,13 +2272,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2290,13 +2286,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2304,13 +2300,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2318,13 +2314,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2332,13 +2328,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2346,13 +2342,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2360,13 +2356,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2374,13 +2370,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2388,13 +2384,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2402,13 +2398,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2416,13 +2412,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2430,13 +2426,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2444,13 +2440,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2458,13 +2454,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2472,13 +2468,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2486,13 +2482,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2500,13 +2496,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2514,13 +2510,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2528,13 +2524,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2542,298 +2538,163 @@
         <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/verbosIrregulares.xlsx
+++ b/excel/verbosIrregulares.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapho\Documents\GIT\VerbosIrregulares\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B805E-F089-4D62-87B7-01C2461C68C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C8BBD6-66FA-4CB1-9725-9ADC59EF201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1035,8 +1035,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla13" displayName="Tabla13" ref="A1:D48" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D48" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla13" displayName="Tabla13" ref="A1:D2" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="INFINITIVE" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SIMPLE PAST" dataDxfId="2"/>
@@ -1878,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/excel/verbosIrregulares.xlsx
+++ b/excel/verbosIrregulares.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapho\Documents\GIT\VerbosIrregulares\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C8BBD6-66FA-4CB1-9725-9ADC59EF201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ED345C-72D7-44C8-BC10-F3308BADA75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIMPIO" sheetId="1" r:id="rId1"/>
-    <sheet name="COMPLETO" sheetId="2" r:id="rId2"/>
+    <sheet name="COMPLETO" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">LIMPIO!$1:$1</definedName>
@@ -772,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -782,123 +782,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1022,26 +910,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:D93" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:D93" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="INFINITIVE" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SIMPLE PAST" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PAST PARTICIPLE" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MEANING" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla13" displayName="Tabla13" ref="A1:D2" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="INFINITIVE" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SIMPLE PAST" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="PAST PARTICIPLE" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="MEANING" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="INFINITIVE" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SIMPLE PAST" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PAST PARTICIPLE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MEANING" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1371,7 +1246,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D93"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1875,831 +1750,694 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671B5603-3844-40ED-BA4F-03BEA94A32A6}">
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>165</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>176</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>178</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>186</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>195</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>197</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>199</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>199</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>203</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>205</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>204</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>209</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>207</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>207</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" t="s">
         <v>211</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="9"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="9"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="9"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="9"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="9"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="9"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/excel/verbosIrregulares.xlsx
+++ b/excel/verbosIrregulares.xlsx
@@ -5,20 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapho\Documents\GIT\VerbosIrregulares\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ED345C-72D7-44C8-BC10-F3308BADA75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC894CA-56ED-4645-AD45-9963DD115DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LIMPIO" sheetId="1" r:id="rId1"/>
-    <sheet name="COMPLETO" sheetId="3" r:id="rId2"/>
+    <sheet name="parte2" sheetId="4" r:id="rId1"/>
+    <sheet name="parte1" sheetId="3" r:id="rId2"/>
+    <sheet name="COMPLETO" sheetId="5" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">LIMPIO!$1:$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="316">
   <si>
     <t>INFINITIVE</t>
   </si>
@@ -682,13 +680,319 @@
   </si>
   <si>
     <t>beat</t>
+  </si>
+  <si>
+    <t>KNEW</t>
+  </si>
+  <si>
+    <t>KNOWN</t>
+  </si>
+  <si>
+    <t>JAKIN</t>
+  </si>
+  <si>
+    <t>LEARNT</t>
+  </si>
+  <si>
+    <t>MEANT</t>
+  </si>
+  <si>
+    <t>IKASI</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>UTZI</t>
+  </si>
+  <si>
+    <t>LENT</t>
+  </si>
+  <si>
+    <t>LOST</t>
+  </si>
+  <si>
+    <t>SENT</t>
+  </si>
+  <si>
+    <t>PRESTATU</t>
+  </si>
+  <si>
+    <t>BAIMENA EMAN</t>
+  </si>
+  <si>
+    <t>LAY</t>
+  </si>
+  <si>
+    <t>LAIN</t>
+  </si>
+  <si>
+    <t>ETZAN</t>
+  </si>
+  <si>
+    <t>GALDU</t>
+  </si>
+  <si>
+    <t>MADE</t>
+  </si>
+  <si>
+    <t>EGIN</t>
+  </si>
+  <si>
+    <t>ESAN NAHI</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>EZAGUTU</t>
+  </si>
+  <si>
+    <t>PAID</t>
+  </si>
+  <si>
+    <t>ORDAINDU</t>
+  </si>
+  <si>
+    <t>JARRI</t>
+  </si>
+  <si>
+    <t>IRAKURRI</t>
+  </si>
+  <si>
+    <t>RODE</t>
+  </si>
+  <si>
+    <t>RIDDEN</t>
+  </si>
+  <si>
+    <t>GAINEAN IBILI</t>
+  </si>
+  <si>
+    <t>RANG</t>
+  </si>
+  <si>
+    <t>RUNG</t>
+  </si>
+  <si>
+    <t>DEITU</t>
+  </si>
+  <si>
+    <t>ROSE</t>
+  </si>
+  <si>
+    <t>RISEN</t>
+  </si>
+  <si>
+    <t>SEEN</t>
+  </si>
+  <si>
+    <t>SHAKEN</t>
+  </si>
+  <si>
+    <t>SHOWN</t>
+  </si>
+  <si>
+    <t>ALTXATU</t>
+  </si>
+  <si>
+    <t>KORRIKA EGIN</t>
+  </si>
+  <si>
+    <t>SAID</t>
+  </si>
+  <si>
+    <t>ESAN</t>
+  </si>
+  <si>
+    <t>SAW</t>
+  </si>
+  <si>
+    <t>IKUSI</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>SALDU</t>
+  </si>
+  <si>
+    <t>BIDALI</t>
+  </si>
+  <si>
+    <t>SHOOK</t>
+  </si>
+  <si>
+    <t>ERAGIN</t>
+  </si>
+  <si>
+    <t>SHONE</t>
+  </si>
+  <si>
+    <t>DISTIRATU</t>
+  </si>
+  <si>
+    <t>SHOWED</t>
+  </si>
+  <si>
+    <t>TAKEN</t>
+  </si>
+  <si>
+    <t>THROWN</t>
+  </si>
+  <si>
+    <t>ERAKUTSI</t>
+  </si>
+  <si>
+    <t>ITXI</t>
+  </si>
+  <si>
+    <t>SANG</t>
+  </si>
+  <si>
+    <t>SUNG</t>
+  </si>
+  <si>
+    <t>ABESTU</t>
+  </si>
+  <si>
+    <t>SANK</t>
+  </si>
+  <si>
+    <t>SUNK</t>
+  </si>
+  <si>
+    <t>URPERATU</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>ESERI</t>
+  </si>
+  <si>
+    <t>SLEPT</t>
+  </si>
+  <si>
+    <t>LO EGIN</t>
+  </si>
+  <si>
+    <t>SPOKE</t>
+  </si>
+  <si>
+    <t>SPOKEN</t>
+  </si>
+  <si>
+    <t>HITZ EGIN</t>
+  </si>
+  <si>
+    <t>SPENT</t>
+  </si>
+  <si>
+    <t>GASTATU</t>
+  </si>
+  <si>
+    <t>STOOD</t>
+  </si>
+  <si>
+    <t>ZUTIK EGON</t>
+  </si>
+  <si>
+    <t>STOLE</t>
+  </si>
+  <si>
+    <t>STOLEN</t>
+  </si>
+  <si>
+    <t>LAPURTU</t>
+  </si>
+  <si>
+    <t>SWAM</t>
+  </si>
+  <si>
+    <t>SWUM</t>
+  </si>
+  <si>
+    <t>IGERI EGIN</t>
+  </si>
+  <si>
+    <t>TOOK</t>
+  </si>
+  <si>
+    <t>HARTU</t>
+  </si>
+  <si>
+    <t>TAUGHT</t>
+  </si>
+  <si>
+    <t>IRAKATSI</t>
+  </si>
+  <si>
+    <t>TOLD</t>
+  </si>
+  <si>
+    <t>THOUGHT</t>
+  </si>
+  <si>
+    <t>PENTSATU</t>
+  </si>
+  <si>
+    <t>THREW</t>
+  </si>
+  <si>
+    <t>JAURTI</t>
+  </si>
+  <si>
+    <t>UNDERSTOOD</t>
+  </si>
+  <si>
+    <t>ULERTU</t>
+  </si>
+  <si>
+    <t>WOKE UP</t>
+  </si>
+  <si>
+    <t>WOKEN UP</t>
+  </si>
+  <si>
+    <t>ESNATU</t>
+  </si>
+  <si>
+    <t>WORE</t>
+  </si>
+  <si>
+    <t>WORN</t>
+  </si>
+  <si>
+    <t>JANTZI</t>
+  </si>
+  <si>
+    <t>WON</t>
+  </si>
+  <si>
+    <t>IRABAZI</t>
+  </si>
+  <si>
+    <t>WROTE</t>
+  </si>
+  <si>
+    <t>WRITTEN</t>
+  </si>
+  <si>
+    <t>IDATZI</t>
+  </si>
+  <si>
+    <t>SLID</t>
+  </si>
+  <si>
+    <t>IRRISTATU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,30 +1000,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -727,176 +1017,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -907,19 +1038,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:D93" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="INFINITIVE" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SIMPLE PAST" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PAST PARTICIPLE" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MEANING" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1238,514 +1356,661 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65509C-7AC4-4B35-BB1B-F350F48C8BA5}">
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" style="2" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="B7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="B8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="B11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="B15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="B17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="B19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="B20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="B21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="B22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="B23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="B24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="B25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="B27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="B28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" t="s">
+        <v>273</v>
+      </c>
+      <c r="D28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="B29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="B30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="B31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" t="s">
+        <v>314</v>
+      </c>
+      <c r="D31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="B32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="B33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="B34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="B35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="B36" t="s">
+        <v>289</v>
+      </c>
+      <c r="C36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="B37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C37" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="B38" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" t="s">
+        <v>294</v>
+      </c>
+      <c r="D38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="B39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="B40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="B41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="B42" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42" t="s">
+        <v>301</v>
+      </c>
+      <c r="D42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="B43" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="B44" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="B45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
+      <c r="B46" t="s">
+        <v>311</v>
+      </c>
+      <c r="C46" t="s">
+        <v>312</v>
+      </c>
+      <c r="D46" t="s">
+        <v>313</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1753,19 +2018,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671B5603-3844-40ED-BA4F-03BEA94A32A6}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +2044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1793,7 +2058,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +2072,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1821,7 +2086,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1835,7 +2100,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1849,7 +2114,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1863,7 +2128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1877,7 +2142,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1891,7 +2156,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1905,7 +2170,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1919,7 +2184,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1933,7 +2198,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1947,7 +2212,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1961,7 +2226,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1975,7 +2240,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1989,7 +2254,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2003,7 +2268,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2017,7 +2282,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2031,7 +2296,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2045,7 +2310,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2059,7 +2324,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2073,7 +2338,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2087,7 +2352,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2101,7 +2366,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2115,7 +2380,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2129,7 +2394,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2143,7 +2408,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2157,7 +2422,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2171,7 +2436,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2185,7 +2450,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2199,7 +2464,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2213,7 +2478,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2227,7 +2492,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2241,7 +2506,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2255,7 +2520,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2269,7 +2534,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2283,7 +2548,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2297,7 +2562,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2311,7 +2576,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2325,7 +2590,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2339,7 +2604,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2353,7 +2618,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2367,7 +2632,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2381,7 +2646,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2395,7 +2660,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2409,7 +2674,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2423,7 +2688,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2435,6 +2700,1323 @@
       </c>
       <c r="D48" t="s">
         <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883662ED-E01C-457C-9A94-421E1B8FD838}">
+  <dimension ref="A1:D93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" t="s">
+        <v>247</v>
+      </c>
+      <c r="D64" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>257</v>
+      </c>
+      <c r="C68" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>260</v>
+      </c>
+      <c r="C70" t="s">
+        <v>249</v>
+      </c>
+      <c r="D70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" t="s">
+        <v>262</v>
+      </c>
+      <c r="D71" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" t="s">
+        <v>250</v>
+      </c>
+      <c r="D72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>272</v>
+      </c>
+      <c r="C75" t="s">
+        <v>273</v>
+      </c>
+      <c r="D75" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" t="s">
+        <v>275</v>
+      </c>
+      <c r="D76" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" t="s">
+        <v>277</v>
+      </c>
+      <c r="D77" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>314</v>
+      </c>
+      <c r="C78" t="s">
+        <v>314</v>
+      </c>
+      <c r="D78" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" t="s">
+        <v>280</v>
+      </c>
+      <c r="D79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" t="s">
+        <v>282</v>
+      </c>
+      <c r="D80" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" t="s">
+        <v>284</v>
+      </c>
+      <c r="D81" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>286</v>
+      </c>
+      <c r="C82" t="s">
+        <v>287</v>
+      </c>
+      <c r="D82" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" t="s">
+        <v>290</v>
+      </c>
+      <c r="D83" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>292</v>
+      </c>
+      <c r="C84" t="s">
+        <v>265</v>
+      </c>
+      <c r="D84" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>294</v>
+      </c>
+      <c r="C85" t="s">
+        <v>294</v>
+      </c>
+      <c r="D85" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>296</v>
+      </c>
+      <c r="C86" t="s">
+        <v>296</v>
+      </c>
+      <c r="D86" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>297</v>
+      </c>
+      <c r="C87" t="s">
+        <v>297</v>
+      </c>
+      <c r="D87" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>299</v>
+      </c>
+      <c r="C88" t="s">
+        <v>266</v>
+      </c>
+      <c r="D88" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>301</v>
+      </c>
+      <c r="C89" t="s">
+        <v>301</v>
+      </c>
+      <c r="D89" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>303</v>
+      </c>
+      <c r="C90" t="s">
+        <v>304</v>
+      </c>
+      <c r="D90" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>306</v>
+      </c>
+      <c r="C91" t="s">
+        <v>307</v>
+      </c>
+      <c r="D91" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>309</v>
+      </c>
+      <c r="C92" t="s">
+        <v>309</v>
+      </c>
+      <c r="D92" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>311</v>
+      </c>
+      <c r="C93" t="s">
+        <v>312</v>
+      </c>
+      <c r="D93" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
